--- a/app/storage/packages/loan/Repayment Schedule Nikom.xlsx
+++ b/app/storage/packages/loan/Repayment Schedule Nikom.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\battambang\app\storage\packages\loan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>កាលវិភាគសងប្រាក់</t>
   </si>
@@ -57,9 +62,6 @@
     <t>______________________</t>
   </si>
   <si>
-    <t xml:space="preserve">ប្រភេទការសង៖ </t>
-  </si>
-  <si>
     <t xml:space="preserve">លេខកូដ៖ </t>
   </si>
   <si>
@@ -69,9 +71,6 @@
     <t xml:space="preserve">ភេទ៖ </t>
   </si>
   <si>
-    <t xml:space="preserve">រយៈពេលខ្ចី៖ </t>
-  </si>
-  <si>
     <t xml:space="preserve">អាសយដ្ឋាន៖ </t>
   </si>
   <si>
@@ -81,21 +80,12 @@
     <t xml:space="preserve">អត្រាការប្រាក់៖ </t>
   </si>
   <si>
-    <t xml:space="preserve">ចំនួនលើកនៃការខ្ចី៖ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">កាលបរិច្ឆេទខ្ចី៖ </t>
-  </si>
-  <si>
     <t xml:space="preserve">លេខប័ណ្ណបើកប្រាក់៖ </t>
   </si>
   <si>
     <t xml:space="preserve">ចំនួនទឹកប្រាក់៖ </t>
   </si>
   <si>
-    <t xml:space="preserve">មន្រ្តីឥណទាន៖ </t>
-  </si>
-  <si>
     <t xml:space="preserve">ថ្ងៃទី </t>
   </si>
   <si>
@@ -112,6 +102,18 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">រយៈពេលបញ្ចាំ៖ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ចំនួនលើកនៃការបញ្ចាំ៖ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">កាលបរិច្ឆេទបញ្ចាំ៖ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ភ្នាក់ងារទីផ្សារ៖ </t>
   </si>
 </sst>
 </file>
@@ -121,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +184,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Khmer OS Muol Light"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Khmer OS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -275,6 +289,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -284,17 +307,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,6 +325,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -353,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -615,121 +638,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -803,46 +822,46 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
@@ -850,29 +869,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:G9"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -880,6 +892,17 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
